--- a/Engenharia_Valor/PlanilhaEV.xlsx
+++ b/Engenharia_Valor/PlanilhaEV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="VisaoEstrategica" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="ValueComponents">VisaoEstrategica!$B$7:$B$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -153,7 +152,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.###############"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -193,6 +192,12 @@
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -450,9 +455,6 @@
     <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,6 +563,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,11 +714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1846723872"/>
-        <c:axId val="-1892224416"/>
+        <c:axId val="-2033537888"/>
+        <c:axId val="-2033544960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1846723872"/>
+        <c:axId val="-2033537888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +742,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1892224416"/>
+        <c:crossAx val="-2033544960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -745,7 +750,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1892224416"/>
+        <c:axId val="-2033544960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +784,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1846723872"/>
+        <c:crossAx val="-2033537888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -842,7 +847,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1029,11 +1033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1548229648"/>
-        <c:axId val="-1548222576"/>
+        <c:axId val="-2033544416"/>
+        <c:axId val="-2033543872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1548229648"/>
+        <c:axId val="-2033544416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1061,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1548222576"/>
+        <c:crossAx val="-2033543872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1065,7 +1069,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1548222576"/>
+        <c:axId val="-2033543872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,14 +1107,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1548229648"/>
+        <c:crossAx val="-2033544416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1162,7 +1165,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1260,11 +1262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1548216592"/>
-        <c:axId val="-1548230192"/>
+        <c:axId val="-2033537344"/>
+        <c:axId val="-2033542240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1548216592"/>
+        <c:axId val="-2033537344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1290,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1548230192"/>
+        <c:crossAx val="-2033542240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1296,7 +1298,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1548230192"/>
+        <c:axId val="-2033542240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,14 +1336,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1548216592"/>
+        <c:crossAx val="-2033537344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1393,7 +1394,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1580,11 +1580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1548229104"/>
-        <c:axId val="-1548225840"/>
+        <c:axId val="-2033533536"/>
+        <c:axId val="-2033541696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1548229104"/>
+        <c:axId val="-2033533536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1608,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1548225840"/>
+        <c:crossAx val="-2033541696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1616,7 +1616,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1548225840"/>
+        <c:axId val="-2033541696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,14 +1654,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1548229104"/>
+        <c:crossAx val="-2033533536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2096,7 +2095,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I7" sqref="I7:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2134,12 +2133,12 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="5"/>
       <c r="AA2" s="6">
         <v>1</v>
@@ -2162,10 +2161,10 @@
       <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="AA3" s="6">
         <v>2</v>
       </c>
@@ -2187,10 +2186,10 @@
       <c r="F4" s="10">
         <v>8</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="AA4" s="6">
         <v>3</v>
       </c>
@@ -2218,12 +2217,12 @@
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="12" t="s">
         <v>5</v>
       </c>
@@ -2278,8 +2277,8 @@
         <f>(G7/$G$12)*100</f>
         <v>23.187995469988675</v>
       </c>
-      <c r="I7" s="16">
-        <v>100</v>
+      <c r="I7" s="53">
+        <v>63</v>
       </c>
       <c r="J7" s="15">
         <f>I7/$I$12*100</f>
@@ -2290,14 +2289,14 @@
         <v>1.1593997734994337</v>
       </c>
       <c r="L7" s="15">
-        <f t="shared" ref="L7:L9" si="2">IFERROR(H7+L6,H7)</f>
+        <f t="shared" ref="L7:L8" si="2">IFERROR(H7+L6,H7)</f>
         <v>23.187995469988675</v>
       </c>
       <c r="M7" s="15">
         <f t="shared" ref="M7:M10" si="3">IFERROR(J7+M6,J7)</f>
         <v>20</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>2</v>
       </c>
       <c r="O7" s="5"/>
@@ -2330,8 +2329,8 @@
         <f>(G8/$G$12)*100</f>
         <v>16.138165345413363</v>
       </c>
-      <c r="I8" s="16">
-        <v>100</v>
+      <c r="I8" s="53">
+        <v>63</v>
       </c>
       <c r="J8" s="15">
         <f>I8/$I$12*100</f>
@@ -2349,7 +2348,7 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="16">
         <v>6</v>
       </c>
       <c r="O8" s="5"/>
@@ -2382,8 +2381,8 @@
         <f>(G9/$G$12)*100</f>
         <v>22.055492638731597</v>
       </c>
-      <c r="I9" s="16">
-        <v>100</v>
+      <c r="I9" s="53">
+        <v>63</v>
       </c>
       <c r="J9" s="15">
         <f>I9/$I$12*100</f>
@@ -2401,56 +2400,56 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <v>7</v>
       </c>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>5</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>21</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>3</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>21</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>689</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <f>(G10/$G$12)*100</f>
         <v>19.507361268403169</v>
       </c>
-      <c r="I10" s="16">
-        <v>100</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="I10" s="53">
+        <v>63</v>
+      </c>
+      <c r="J10" s="16">
         <f>I10/$I$12*100</f>
         <v>20</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <f t="shared" si="1"/>
         <v>0.97536806342015847</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <f>IFERROR(H10+L9,H10)</f>
         <v>80.8890147225368</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>7</v>
       </c>
       <c r="O10" s="5"/>
@@ -2480,8 +2479,8 @@
         <f>(G11/$G$12)*100</f>
         <v>19.110985277463193</v>
       </c>
-      <c r="I11" s="16">
-        <v>100</v>
+      <c r="I11" s="53">
+        <v>63</v>
       </c>
       <c r="J11" s="15">
         <f>I11/$I$12*100</f>
@@ -2499,110 +2498,110 @@
         <f>IFERROR(J11+M9,J11)</f>
         <v>80</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>3</v>
       </c>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21">
         <f>SUM(G7:G11)</f>
         <v>3532</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <f>SUM(H7:H11)</f>
         <v>100</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <f>SUM(I7:I11)</f>
-        <v>500</v>
-      </c>
-      <c r="J12" s="23">
+        <v>315</v>
+      </c>
+      <c r="J12" s="22">
         <f>SUM(J7:J11)</f>
         <v>100</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="26"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="26"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="26"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="26"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="26"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="26"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="26"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="26"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="26"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="26"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="26"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="26"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="26"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="26"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="26"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="26"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="26"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="26"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="26"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="26"/>
+      <c r="D36" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:N11"/>
@@ -2617,6 +2616,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2639,17 +2639,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2729,7 +2729,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2737,175 +2737,175 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="33" t="str">
+      <c r="C4" s="32" t="str">
         <f>VisaoEstrategica!G6</f>
         <v>Valor</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <f>IF(ISNA(VLOOKUP(B5,VisaoEstrategica!$B$7:$H$11,6,FALSE)),,VLOOKUP(B5,VisaoEstrategica!$B$7:$H$11,6,FALSE))</f>
         <v>819</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="36">
-        <v>5</v>
+      <c r="E5" s="38"/>
+      <c r="F5" s="35">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <f>IF(ISNA(VLOOKUP(B6,VisaoEstrategica!$B$7:$H$11,6,FALSE)),,VLOOKUP(B6,VisaoEstrategica!$B$7:$H$11,6,FALSE))</f>
         <v>570</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="36">
+      <c r="E6" s="38"/>
+      <c r="F6" s="35">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <f>IF(ISNA(VLOOKUP(B7,VisaoEstrategica!$B$7:$H$11,6,FALSE)),,VLOOKUP(B7,VisaoEstrategica!$B$7:$H$11,6,FALSE))</f>
         <v>779</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="36">
-        <v>3</v>
+      <c r="E7" s="38"/>
+      <c r="F7" s="35">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>4</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <f>IF(ISNA(VLOOKUP(B8,VisaoEstrategica!$B$7:$H$11,6,FALSE)),,VLOOKUP(B8,VisaoEstrategica!$B$7:$H$11,6,FALSE))</f>
         <v>689</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="36">
+      <c r="E8" s="38"/>
+      <c r="F8" s="35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
-        <v>5</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <f>IF(ISNA(VLOOKUP(B9,VisaoEstrategica!$B$7:$H$11,6,FALSE)),,VLOOKUP(B9,VisaoEstrategica!$B$7:$H$11,6,FALSE))</f>
         <v>675</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="36">
-        <v>8</v>
+      <c r="E9" s="38"/>
+      <c r="F9" s="35">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="29"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <f>SUBTOTAL(9,F5:F9)</f>
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="29"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="29"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>25</v>
       </c>
     </row>
